--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-0.006498192133295118</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.521384039361079</v>
+        <v>-1.521876855267892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2270743448312248</v>
+        <v>0.22653883447704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1184956560358588</v>
+        <v>0.1181345829952239</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.009006027766685753</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.416987576646175</v>
+        <v>-1.417643241373679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2028373169786105</v>
+        <v>0.2026226249003952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09387742776027694</v>
+        <v>0.09349988686136988</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01800464695771547</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.40081370014017</v>
+        <v>-1.402671518521544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1961251399309981</v>
+        <v>0.1962672514486804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1336698725526737</v>
+        <v>0.1331794963285683</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03476235312458373</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.477982693924364</v>
+        <v>-1.480402249249024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2250433089776538</v>
+        <v>0.2258008304581749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08594723912119868</v>
+        <v>0.08501893985118814</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05716814443829356</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.481301882247227</v>
+        <v>-1.482999291490617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3340117370854618</v>
+        <v>0.3347710883280132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0996350789487786</v>
+        <v>0.09845183283588736</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.079059616748875</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.427006743603115</v>
+        <v>-1.427522126574967</v>
       </c>
       <c r="F7" t="n">
-        <v>0.388444717802519</v>
+        <v>0.3892449337304125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02941735111748168</v>
+        <v>0.02837987604633323</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09041324734693375</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.158398897404624</v>
+        <v>-1.158154929133925</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4259493501364338</v>
+        <v>0.4276857943031355</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02596954553800946</v>
+        <v>-0.02735955476031829</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07921467336276362</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5839231508651026</v>
+        <v>-0.5830174186601318</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3613020278458769</v>
+        <v>0.3633092767930548</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02203494725230774</v>
+        <v>-0.02270281039334686</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03524637291895534</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02300647488418284</v>
+        <v>0.02225688237245948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.310809744621289</v>
+        <v>0.3118947935052238</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06023488915771535</v>
+        <v>-0.06002141692085353</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04540351803467401</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8116869730182988</v>
+        <v>0.8083250902480635</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1212067534440039</v>
+        <v>0.1224003682083999</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.004025209509291084</v>
+        <v>-0.004847382581547466</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1590760492844239</v>
       </c>
       <c r="E12" t="n">
-        <v>1.588697248923518</v>
+        <v>1.582063141722529</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2665808128324113</v>
+        <v>-0.2648205817593164</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1021863771396157</v>
+        <v>0.1012019651673444</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2933281913756689</v>
       </c>
       <c r="E13" t="n">
-        <v>2.334688179050683</v>
+        <v>2.327504533319945</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6304966937415843</v>
+        <v>-0.6286754706008146</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2243425101200703</v>
+        <v>0.2237039231715151</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4345763257408133</v>
       </c>
       <c r="E14" t="n">
-        <v>3.027780078962814</v>
+        <v>3.019293642666541</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.174226338966236</v>
+        <v>-1.17123406812611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3956765472667207</v>
+        <v>0.3947238511696403</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5781136962790748</v>
       </c>
       <c r="E15" t="n">
-        <v>3.734881856819847</v>
+        <v>3.72448880848806</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.762885790843533</v>
+        <v>-1.759551964424429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5435432764548129</v>
+        <v>0.5424746954291503</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.72750732799965</v>
       </c>
       <c r="E16" t="n">
-        <v>4.34559299076497</v>
+        <v>4.334087447118795</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.269856736721933</v>
+        <v>-2.26695961350738</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7236583415846052</v>
+        <v>0.7223293244299711</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8866785267205229</v>
       </c>
       <c r="E17" t="n">
-        <v>4.953760755488054</v>
+        <v>4.941383025274129</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.815766238445283</v>
+        <v>-2.813680919651481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9385266868755017</v>
+        <v>0.9368353768388794</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.055198690871035</v>
       </c>
       <c r="E18" t="n">
-        <v>5.310596067260859</v>
+        <v>5.29833910134093</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.355046512333057</v>
+        <v>-3.353781231889143</v>
       </c>
       <c r="G18" t="n">
-        <v>1.132153324757294</v>
+        <v>1.13024854248381</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.225969733667086</v>
       </c>
       <c r="E19" t="n">
-        <v>5.626277591290765</v>
+        <v>5.613559525339214</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.860201419396439</v>
+        <v>-3.859776914605423</v>
       </c>
       <c r="G19" t="n">
-        <v>1.363726787463643</v>
+        <v>1.362489258410521</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.38924716111651</v>
       </c>
       <c r="E20" t="n">
-        <v>5.978155467802962</v>
+        <v>5.964581073221257</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.365610663382026</v>
+        <v>-4.365531373694049</v>
       </c>
       <c r="G20" t="n">
-        <v>1.534355146387296</v>
+        <v>1.533107248682669</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.535712953297282</v>
       </c>
       <c r="E21" t="n">
-        <v>6.185837117759736</v>
+        <v>6.172937295446514</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.67414849148552</v>
+        <v>-4.673513869021364</v>
       </c>
       <c r="G21" t="n">
-        <v>1.678209207443063</v>
+        <v>1.676999734741071</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.657799551676795</v>
       </c>
       <c r="E22" t="n">
-        <v>6.318215521282488</v>
+        <v>6.305659694230952</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.955890369537104</v>
+        <v>-4.955930014381093</v>
       </c>
       <c r="G22" t="n">
-        <v>1.876004653150428</v>
+        <v>1.874485950665325</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.749720923913421</v>
       </c>
       <c r="E23" t="n">
-        <v>6.389281038854465</v>
+        <v>6.376714233230747</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.220898768861767</v>
+        <v>-5.220145516825983</v>
       </c>
       <c r="G23" t="n">
-        <v>1.979557595569389</v>
+        <v>1.978418263745224</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.809127421866839</v>
       </c>
       <c r="E24" t="n">
-        <v>6.47969324029289</v>
+        <v>6.466980053706753</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.34114767988603</v>
+        <v>-5.340241032800044</v>
       </c>
       <c r="G24" t="n">
-        <v>2.073985514743524</v>
+        <v>2.071853841978289</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.835220808099112</v>
       </c>
       <c r="E25" t="n">
-        <v>6.484324977912115</v>
+        <v>6.471552019099657</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.367542302132641</v>
+        <v>-5.366287085379893</v>
       </c>
       <c r="G25" t="n">
-        <v>2.135313648711218</v>
+        <v>2.133386909293371</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.829107611989021</v>
       </c>
       <c r="E26" t="n">
-        <v>6.540107103166139</v>
+        <v>6.52724997530029</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.364328020166178</v>
+        <v>-5.363219184375851</v>
       </c>
       <c r="G26" t="n">
-        <v>2.163127251412283</v>
+        <v>2.161014486188027</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.791998325592496</v>
       </c>
       <c r="E27" t="n">
-        <v>6.425366385773587</v>
+        <v>6.412651979346097</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.351364766102575</v>
+        <v>-5.35115190378639</v>
       </c>
       <c r="G27" t="n">
-        <v>2.17052314953853</v>
+        <v>2.168770237513556</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.725950744316637</v>
       </c>
       <c r="E28" t="n">
-        <v>6.333561125509469</v>
+        <v>6.32217268663323</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.277951053925118</v>
+        <v>-5.276434486162384</v>
       </c>
       <c r="G28" t="n">
-        <v>2.130649585296125</v>
+        <v>2.129130882811023</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.634559357965809</v>
       </c>
       <c r="E29" t="n">
-        <v>6.236358067256131</v>
+        <v>6.225725930019059</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.116322074586884</v>
+        <v>-5.115136693751624</v>
       </c>
       <c r="G29" t="n">
-        <v>2.046475652539479</v>
+        <v>2.045233244120944</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.522921367463083</v>
       </c>
       <c r="E30" t="n">
-        <v>6.076116047536821</v>
+        <v>6.067556420759338</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.914982684787274</v>
+        <v>-4.913356636263064</v>
       </c>
       <c r="G30" t="n">
-        <v>1.99345341834774</v>
+        <v>1.99197192102392</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.396906400865917</v>
       </c>
       <c r="E31" t="n">
-        <v>5.911169099717076</v>
+        <v>5.90348043966599</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.779171647695784</v>
+        <v>-4.777509613851645</v>
       </c>
       <c r="G31" t="n">
-        <v>1.889293604855414</v>
+        <v>1.886964317790913</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.263740744597831</v>
       </c>
       <c r="E32" t="n">
-        <v>5.725993522732305</v>
+        <v>5.71903066828655</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.530442336193865</v>
+        <v>-4.529200842656344</v>
       </c>
       <c r="G32" t="n">
-        <v>1.822736620925959</v>
+        <v>1.820139578684366</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.129500257144935</v>
       </c>
       <c r="E33" t="n">
-        <v>5.465332942951841</v>
+        <v>5.458174913889525</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.37753278285042</v>
+        <v>-4.375882642459478</v>
       </c>
       <c r="G33" t="n">
-        <v>1.726622271080616</v>
+        <v>1.724300303064237</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9988333490906128</v>
       </c>
       <c r="E34" t="n">
-        <v>5.252512101372788</v>
+        <v>5.245265023891667</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.157481941569195</v>
+        <v>-4.156800355212929</v>
       </c>
       <c r="G34" t="n">
-        <v>1.580815853938579</v>
+        <v>1.578198074393977</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8756744514985454</v>
       </c>
       <c r="E35" t="n">
-        <v>4.993421457414273</v>
+        <v>4.986162181519618</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.021633089395746</v>
+        <v>-4.019616691638418</v>
       </c>
       <c r="G35" t="n">
-        <v>1.514829145841883</v>
+        <v>1.512576098861976</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7624955777739432</v>
       </c>
       <c r="E36" t="n">
-        <v>4.695665502073992</v>
+        <v>4.690786136660008</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.859623519555221</v>
+        <v>-3.857640057514436</v>
       </c>
       <c r="G36" t="n">
-        <v>1.471293007935607</v>
+        <v>1.469181462552705</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6612431085600582</v>
       </c>
       <c r="E37" t="n">
-        <v>4.378944673210907</v>
+        <v>4.375240015020339</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.719909905013558</v>
+        <v>-3.717553476478942</v>
       </c>
       <c r="G37" t="n">
-        <v>1.375692211300086</v>
+        <v>1.374169239370246</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5733779804267519</v>
       </c>
       <c r="E38" t="n">
-        <v>4.100689101747616</v>
+        <v>4.097110087216458</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.622001473497561</v>
+        <v>-3.619606924920648</v>
       </c>
       <c r="G38" t="n">
-        <v>1.26524167594778</v>
+        <v>1.2639925584018</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4982897744960619</v>
       </c>
       <c r="E39" t="n">
-        <v>3.840543295018326</v>
+        <v>3.837366828133823</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.560473285547894</v>
+        <v>-3.558920732465232</v>
       </c>
       <c r="G39" t="n">
-        <v>1.177107528237009</v>
+        <v>1.176102378961728</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4341018474998499</v>
       </c>
       <c r="E40" t="n">
-        <v>3.502643580575842</v>
+        <v>3.499709862120684</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.479799992515443</v>
+        <v>-3.4775387116064</v>
       </c>
       <c r="G40" t="n">
-        <v>1.093602068542079</v>
+        <v>1.092608507759657</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3780701844100013</v>
       </c>
       <c r="E41" t="n">
-        <v>3.285741149827991</v>
+        <v>3.283469805227781</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.38772575723288</v>
+        <v>-3.38565873605938</v>
       </c>
       <c r="G41" t="n">
-        <v>1.031118744812624</v>
+        <v>1.030576525330995</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.327256068914123</v>
       </c>
       <c r="E42" t="n">
-        <v>2.988837863593803</v>
+        <v>2.987682673832043</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.30306297305382</v>
+        <v>-3.301457661832619</v>
       </c>
       <c r="G42" t="n">
-        <v>1.016140922753722</v>
+        <v>1.015642007640142</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2793429256297041</v>
       </c>
       <c r="E43" t="n">
-        <v>2.651290683302479</v>
+        <v>2.65032090942645</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.207411857962467</v>
+        <v>-3.205657116175463</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9236263247425467</v>
+        <v>0.9234372493327547</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2330814327558228</v>
       </c>
       <c r="E44" t="n">
-        <v>2.424878369362772</v>
+        <v>2.424096451055181</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.174798484495734</v>
+        <v>-3.173260874469652</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9102678420804107</v>
+        <v>0.9093499114619049</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1872035570608848</v>
       </c>
       <c r="E45" t="n">
-        <v>2.162147718805425</v>
+        <v>2.162133080709183</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.082465032925552</v>
+        <v>-3.080765793920132</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8389571363963813</v>
+        <v>0.8382746351591002</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1410621027330284</v>
       </c>
       <c r="E46" t="n">
-        <v>2.014662799960977</v>
+        <v>2.014147416989125</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.996287510745789</v>
+        <v>-2.994875544379117</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7996745852897459</v>
+        <v>0.7989750062735158</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09440212885556011</v>
       </c>
       <c r="E47" t="n">
-        <v>1.792539448220163</v>
+        <v>1.792422343450227</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.92223094217504</v>
+        <v>-2.920694551990311</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7274105735879592</v>
+        <v>0.726919587443177</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04703795359829487</v>
       </c>
       <c r="E48" t="n">
-        <v>1.667738699185328</v>
+        <v>1.667649040845847</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.851979058785845</v>
+        <v>-2.849753458236391</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6598758868136769</v>
+        <v>0.6585377208488917</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.0008056522393022905</v>
       </c>
       <c r="E49" t="n">
-        <v>1.482361848377231</v>
+        <v>1.482627163871616</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.815019695536943</v>
+        <v>-2.813282641449564</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5789766181704913</v>
+        <v>0.5772413938451431</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.04868622937335335</v>
       </c>
       <c r="E50" t="n">
-        <v>1.390675522645079</v>
+        <v>1.390946327425555</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.731389812023956</v>
+        <v>-2.73017180043249</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5722467534232533</v>
+        <v>0.5697881631752818</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.09646954254786715</v>
       </c>
       <c r="E51" t="n">
-        <v>1.301247733178925</v>
+        <v>1.301667358604528</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.662217488232606</v>
+        <v>-2.661458746910731</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4812770844862804</v>
+        <v>0.47920091450263</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1440124298454052</v>
       </c>
       <c r="E52" t="n">
-        <v>1.253138410038392</v>
+        <v>1.252749890567303</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.578384501134261</v>
+        <v>-2.577451932419514</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4038915688618403</v>
+        <v>0.401771484589464</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1911639436431749</v>
       </c>
       <c r="E53" t="n">
-        <v>1.220691239956072</v>
+        <v>1.220538759786885</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.535024630303565</v>
+        <v>-2.534411660023434</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3966798667799712</v>
+        <v>0.3942865380444119</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2376760055506043</v>
       </c>
       <c r="E54" t="n">
-        <v>1.143147754876354</v>
+        <v>1.142295695690937</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.475408543675503</v>
+        <v>-2.474307026933296</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3427799567343919</v>
+        <v>0.3406007101563711</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2829153840137191</v>
       </c>
       <c r="E55" t="n">
-        <v>1.129989326196192</v>
+        <v>1.12763198278056</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.454000937842323</v>
+        <v>-2.452931746895984</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3137538317279518</v>
+        <v>0.3115928827702334</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3263342095639142</v>
       </c>
       <c r="E56" t="n">
-        <v>1.114230195750375</v>
+        <v>1.111498361039221</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.419623978738772</v>
+        <v>-2.418783508046213</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2665343828547939</v>
+        <v>0.264411248979034</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3676202530537946</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0140220583227</v>
+        <v>1.010610162056971</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.385831933564223</v>
+        <v>-2.385695311332631</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2324160301181843</v>
+        <v>0.2300117228104435</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4065063514375792</v>
       </c>
       <c r="E58" t="n">
-        <v>1.02344106333372</v>
+        <v>1.020395729394717</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.413004509634026</v>
+        <v>-2.412436063563296</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2256922645777137</v>
+        <v>0.2230183723308502</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.443067907228497</v>
       </c>
       <c r="E59" t="n">
-        <v>1.008426036113536</v>
+        <v>1.004646357679728</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.34309784134787</v>
+        <v>-2.342705052432045</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2203944935794801</v>
+        <v>0.2181420565202495</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4773164512241541</v>
       </c>
       <c r="E60" t="n">
-        <v>1.010869378344589</v>
+        <v>1.005601493459516</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.362684224040281</v>
+        <v>-2.36235608671619</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2014351093427667</v>
+        <v>0.198899669089525</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5090717613561944</v>
       </c>
       <c r="E61" t="n">
-        <v>1.124707413135553</v>
+        <v>1.118686276214697</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.388108767450523</v>
+        <v>-2.387534832093703</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2197357792485922</v>
+        <v>0.2166105457009351</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5382244719542607</v>
       </c>
       <c r="E62" t="n">
-        <v>1.154412379855214</v>
+        <v>1.147134806340256</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.376008551144519</v>
+        <v>-2.375493778093343</v>
       </c>
       <c r="G62" t="n">
-        <v>0.187199560747467</v>
+        <v>0.1841151918851521</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5646837625561922</v>
       </c>
       <c r="E63" t="n">
-        <v>1.224028725899238</v>
+        <v>1.215646586038689</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.387000541580872</v>
+        <v>-2.386338167725924</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1551445696602961</v>
+        <v>0.1517259642671232</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5880784366919031</v>
       </c>
       <c r="E64" t="n">
-        <v>1.319459354665945</v>
+        <v>1.309764055588359</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.452072978583122</v>
+        <v>-2.451323386071399</v>
       </c>
       <c r="G64" t="n">
-        <v>0.180677678951</v>
+        <v>0.1771194017228519</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6080403977830271</v>
       </c>
       <c r="E65" t="n">
-        <v>1.368557969144164</v>
+        <v>1.357577567200669</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.585326008356331</v>
+        <v>-2.584877106738245</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1479456759126388</v>
+        <v>0.1443117685205738</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6241424290858328</v>
       </c>
       <c r="E66" t="n">
-        <v>1.417541918535154</v>
+        <v>1.40537034150997</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.670095223693483</v>
+        <v>-2.668929665280218</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1532166104010955</v>
+        <v>0.1495412284030117</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6358900681537097</v>
       </c>
       <c r="E67" t="n">
-        <v>1.470108541981362</v>
+        <v>1.456739080747045</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.719697632650696</v>
+        <v>-2.718672965913759</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1123500952969454</v>
+        <v>0.1089522272067819</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6430200309241531</v>
       </c>
       <c r="E68" t="n">
-        <v>1.515601305418647</v>
+        <v>1.500640561138693</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.817480725467621</v>
+        <v>-2.816745161131463</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07413063592988181</v>
+        <v>0.07016676145169617</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6452240146996986</v>
       </c>
       <c r="E69" t="n">
-        <v>1.512648069501833</v>
+        <v>1.497622063709467</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.868846415101312</v>
+        <v>-2.86738199555644</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1075567286983824</v>
+        <v>0.1036568958912553</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6419576547475057</v>
       </c>
       <c r="E70" t="n">
-        <v>1.531844712881801</v>
+        <v>1.515914804646495</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.907814857059423</v>
+        <v>-2.90612537678483</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1073194695551274</v>
+        <v>0.1034269557961213</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6331405502453673</v>
       </c>
       <c r="E71" t="n">
-        <v>1.524589706431883</v>
+        <v>1.508704932326656</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.980324666793939</v>
+        <v>-2.978834935540982</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1038801268589451</v>
+        <v>0.1002870841522223</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.61840584517847</v>
       </c>
       <c r="E72" t="n">
-        <v>1.515633021293837</v>
+        <v>1.49921761619984</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.054544084185379</v>
+        <v>-3.052295001689871</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05986459130074473</v>
+        <v>0.05596841801767814</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5979994237697599</v>
       </c>
       <c r="E73" t="n">
-        <v>1.555566357762563</v>
+        <v>1.539613882462218</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.11873884533379</v>
+        <v>-3.115905458829956</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.000419968389033314</v>
+        <v>-0.004221603967203959</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5719369609439559</v>
       </c>
       <c r="E74" t="n">
-        <v>1.533976385647035</v>
+        <v>1.517447535307163</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.166135171203204</v>
+        <v>-3.163929088115407</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.02305046517909326</v>
+        <v>-0.02687954718771756</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5405478689898054</v>
       </c>
       <c r="E75" t="n">
-        <v>1.508526835489046</v>
+        <v>1.49374662772941</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.176688018752299</v>
+        <v>-3.174658812660758</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.00864962808039486</v>
+        <v>-0.01230549261682272</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5041928777537018</v>
       </c>
       <c r="E76" t="n">
-        <v>1.51645397452474</v>
+        <v>1.50146273421095</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.245348924056197</v>
+        <v>-3.242653379625309</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02019847609461934</v>
+        <v>-0.02364086839418538</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.463547108378736</v>
       </c>
       <c r="E77" t="n">
-        <v>1.396619199639989</v>
+        <v>1.381998791097661</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.265716310175183</v>
+        <v>-3.263924668187236</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02850315602922089</v>
+        <v>-0.03287750712285797</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4191637941399581</v>
       </c>
       <c r="E78" t="n">
-        <v>1.434121392291197</v>
+        <v>1.420340234600074</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.260349313180138</v>
+        <v>-3.257480856237392</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001270731726912303</v>
+        <v>-0.003043237219726711</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3717266732023517</v>
       </c>
       <c r="E79" t="n">
-        <v>1.456164535469548</v>
+        <v>1.441499602717818</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.216231005987906</v>
+        <v>-3.214069447109511</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03956765101992286</v>
+        <v>0.03555315312556714</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3219087266427956</v>
       </c>
       <c r="E80" t="n">
-        <v>1.489463764737285</v>
+        <v>1.475305676067933</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.167376054820048</v>
+        <v>-3.165253225904626</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02922705586633629</v>
+        <v>0.02548153299042646</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2702692791950219</v>
       </c>
       <c r="E81" t="n">
-        <v>1.617468427087077</v>
+        <v>1.603620788042189</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.052707613027691</v>
+        <v>-3.050916885920759</v>
       </c>
       <c r="G81" t="n">
-        <v>0.005237655808481671</v>
+        <v>0.001547635714155921</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2175321122053033</v>
       </c>
       <c r="E82" t="n">
-        <v>1.690571689640069</v>
+        <v>1.677304695079445</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.93315035205086</v>
+        <v>-2.931391950739795</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02598776715212735</v>
+        <v>0.02235202999803218</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1642251034493767</v>
       </c>
       <c r="E83" t="n">
-        <v>1.866386204078111</v>
+        <v>1.853724250828821</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.796379299814169</v>
+        <v>-2.795023446149758</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0716824143334151</v>
+        <v>0.06838823275829885</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1109928049389316</v>
       </c>
       <c r="E84" t="n">
-        <v>2.063302754090282</v>
+        <v>2.050393173046232</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.713162332599341</v>
+        <v>-2.712972037348195</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03275056761590982</v>
+        <v>0.02988272059384045</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.05900695434534646</v>
       </c>
       <c r="E85" t="n">
-        <v>2.207779544157008</v>
+        <v>2.195729951267174</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.498698364717128</v>
+        <v>-2.499488211993516</v>
       </c>
       <c r="G85" t="n">
-        <v>0.07956990852512098</v>
+        <v>0.07668437380342592</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.009378688848948253</v>
       </c>
       <c r="E86" t="n">
-        <v>2.36263840398334</v>
+        <v>2.350894991273233</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.311856484443481</v>
+        <v>-2.313217827393983</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08070802050793287</v>
+        <v>0.07792129293587099</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03710231516548127</v>
       </c>
       <c r="E87" t="n">
-        <v>2.474784518817005</v>
+        <v>2.46305208467908</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.048641556868796</v>
+        <v>-2.050272484758421</v>
       </c>
       <c r="G87" t="n">
-        <v>0.09614938228116345</v>
+        <v>0.09379081902417871</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07935450502898087</v>
       </c>
       <c r="E88" t="n">
-        <v>2.566694685437524</v>
+        <v>2.555326983864294</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.744715034041855</v>
+        <v>-1.746454527811941</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1058324829452156</v>
+        <v>0.1042357106134892</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1156401645761162</v>
       </c>
       <c r="E89" t="n">
-        <v>2.598377624911878</v>
+        <v>2.587517377341702</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.542489734459269</v>
+        <v>-1.545242306473433</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05433992981076082</v>
+        <v>0.05281085867415344</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1444840088178006</v>
       </c>
       <c r="E90" t="n">
-        <v>2.65681778447517</v>
+        <v>2.646384481378718</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.31678675826662</v>
+        <v>-1.320320028747022</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05186853122857769</v>
+        <v>0.05105184744241204</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1635638441431004</v>
       </c>
       <c r="E91" t="n">
-        <v>2.659736864834086</v>
+        <v>2.650118415761769</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9550672017144168</v>
+        <v>-0.9588590785617596</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05463574133898363</v>
+        <v>0.05446984291490816</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1711584583452968</v>
       </c>
       <c r="E92" t="n">
-        <v>2.592391863390273</v>
+        <v>2.582322073017163</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7467036604410383</v>
+        <v>-0.7507815900857758</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04418475054290566</v>
+        <v>0.04416645292260322</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1665180078309707</v>
       </c>
       <c r="E93" t="n">
-        <v>2.516981270917143</v>
+        <v>2.507576294081688</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.425768889622301</v>
+        <v>-0.4309519955333059</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03936279367872007</v>
+        <v>-0.03837167257900447</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1505045147458064</v>
       </c>
       <c r="E94" t="n">
-        <v>2.465195345937172</v>
+        <v>2.456551550106299</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1610596563895833</v>
+        <v>-0.1660817432419268</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08566675161607913</v>
+        <v>-0.08436213128851504</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1255252616033814</v>
       </c>
       <c r="E95" t="n">
-        <v>2.316485706373814</v>
+        <v>2.308611630436997</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05094511132398113</v>
+        <v>0.04544606650242064</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1341328783525101</v>
+        <v>-0.1324403484745342</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0948415976997887</v>
       </c>
       <c r="E96" t="n">
-        <v>2.156759679547033</v>
+        <v>2.149904171140385</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2203816852452684</v>
+        <v>0.2148930090752126</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1879004356112351</v>
+        <v>-0.1862219339088244</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06258809178270353</v>
       </c>
       <c r="E97" t="n">
-        <v>1.984465627255181</v>
+        <v>1.978157217695576</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3489139289804471</v>
+        <v>0.3436808095739488</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2078021472935242</v>
+        <v>-0.2064706904561832</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03232687574022736</v>
       </c>
       <c r="E98" t="n">
-        <v>1.772996979816478</v>
+        <v>1.767851079066755</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4441963470227055</v>
+        <v>0.4396963522696583</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3426732966221455</v>
+        <v>-0.3408185278441547</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.006938154606163004</v>
       </c>
       <c r="E99" t="n">
-        <v>1.609552266623564</v>
+        <v>1.604771098438536</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4965671859316775</v>
+        <v>0.4923404356418135</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3289000678998209</v>
+        <v>-0.3271502054782307</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01339693675642585</v>
       </c>
       <c r="E100" t="n">
-        <v>1.429925747955847</v>
+        <v>1.426022255624659</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5188262410295978</v>
+        <v>0.5153015094386708</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4263141587073137</v>
+        <v>-0.4239190002097241</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02903408474991609</v>
       </c>
       <c r="E101" t="n">
-        <v>1.291635383313376</v>
+        <v>1.289148736714274</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5203303054184586</v>
+        <v>0.5177741278622074</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4290880779451639</v>
+        <v>-0.4262708543392646</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04449851609036515</v>
       </c>
       <c r="E102" t="n">
-        <v>1.079121331834727</v>
+        <v>1.078685238550852</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4753132801090379</v>
+        <v>0.4729614259794974</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4648227204751558</v>
+        <v>-0.4622702024429652</v>
       </c>
     </row>
   </sheetData>
